--- a/data_year/zb/教育/职业技术培训机构基本情况/职业技术培训机构教职工数.xlsx
+++ b/data_year/zb/教育/职业技术培训机构基本情况/职业技术培训机构教职工数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,550 +518,220 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8.551399999999999</v>
+        <v>7.0711</v>
       </c>
       <c r="C2" t="n">
-        <v>20.932</v>
+        <v>23.6024</v>
       </c>
       <c r="D2" t="n">
-        <v>2.13</v>
+        <v>1.642</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6979</v>
+        <v>0.4907</v>
       </c>
       <c r="F2" t="n">
-        <v>1.2161</v>
+        <v>1.2131</v>
       </c>
       <c r="G2" t="n">
-        <v>27.0515</v>
+        <v>19.016</v>
       </c>
       <c r="H2" t="n">
-        <v>1.179</v>
+        <v>1.6173</v>
       </c>
       <c r="I2" t="n">
-        <v>1.3954</v>
+        <v>1.1352</v>
       </c>
       <c r="J2" t="n">
-        <v>26.0128</v>
+        <v>18.3029</v>
       </c>
       <c r="K2" t="n">
-        <v>1.7116</v>
+        <v>2.691</v>
       </c>
       <c r="L2" t="n">
-        <v>16.2824</v>
+        <v>9.6145</v>
       </c>
       <c r="M2" t="n">
-        <v>17.4066</v>
+        <v>20.8252</v>
       </c>
       <c r="N2" t="n">
-        <v>0.3408</v>
+        <v>0.2224</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5422</v>
+        <v>0.7883</v>
       </c>
       <c r="P2" t="n">
-        <v>51.4534</v>
+        <v>47.3108</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.4699</v>
+        <v>4.6924</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.6068</v>
+        <v>6.7599</v>
       </c>
       <c r="C3" t="n">
-        <v>22.4957</v>
+        <v>26.5765</v>
       </c>
       <c r="D3" t="n">
-        <v>1.1518</v>
+        <v>1.7557</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6397</v>
+        <v>0.3432</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9644</v>
+        <v>1.2473</v>
       </c>
       <c r="G3" t="n">
-        <v>25.0694</v>
+        <v>18.8523</v>
       </c>
       <c r="H3" t="n">
-        <v>1.0699</v>
+        <v>1.7877</v>
       </c>
       <c r="I3" t="n">
-        <v>1.491</v>
+        <v>1.0872</v>
       </c>
       <c r="J3" t="n">
-        <v>23.2963</v>
+        <v>18.0779</v>
       </c>
       <c r="K3" t="n">
-        <v>2.8377</v>
+        <v>4.582</v>
       </c>
       <c r="L3" t="n">
-        <v>14.6196</v>
+        <v>9.5303</v>
       </c>
       <c r="M3" t="n">
-        <v>19.8529</v>
+        <v>23.7336</v>
       </c>
       <c r="N3" t="n">
-        <v>1.1334</v>
+        <v>0.4312</v>
       </c>
       <c r="O3" t="n">
-        <v>1.2568</v>
+        <v>0.9177</v>
       </c>
       <c r="P3" t="n">
-        <v>52.624</v>
+        <v>52.1758</v>
       </c>
       <c r="Q3" t="n">
-        <v>5.0589</v>
+        <v>6.747</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.3077</v>
+        <v>6.0357</v>
       </c>
       <c r="C4" t="n">
-        <v>23.1856</v>
+        <v>27.6313</v>
       </c>
       <c r="D4" t="n">
-        <v>1.8925</v>
+        <v>2.6878</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4098</v>
+        <v>0.4139</v>
       </c>
       <c r="F4" t="n">
-        <v>1.0824</v>
+        <v>1.2286</v>
       </c>
       <c r="G4" t="n">
-        <v>23.2579</v>
+        <v>17.0322</v>
       </c>
       <c r="H4" t="n">
-        <v>1.1789</v>
+        <v>1.7208</v>
       </c>
       <c r="I4" t="n">
-        <v>1.2295</v>
+        <v>1.5414</v>
       </c>
       <c r="J4" t="n">
-        <v>22.488</v>
+        <v>16.1422</v>
       </c>
       <c r="K4" t="n">
-        <v>1.9251</v>
+        <v>4.0213</v>
       </c>
       <c r="L4" t="n">
-        <v>14.0014</v>
+        <v>8.3857</v>
       </c>
       <c r="M4" t="n">
-        <v>20.0636</v>
+        <v>23.4021</v>
       </c>
       <c r="N4" t="n">
-        <v>0.3601</v>
+        <v>0.4761</v>
       </c>
       <c r="O4" t="n">
-        <v>1.2498</v>
+        <v>0.7475000000000001</v>
       </c>
       <c r="P4" t="n">
-        <v>50.7008</v>
+        <v>50.6609</v>
       </c>
       <c r="Q4" t="n">
-        <v>4.2573</v>
+        <v>5.9974</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.294</v>
+        <v>5.8825</v>
       </c>
       <c r="C5" t="n">
-        <v>23.8863</v>
+        <v>25.282</v>
       </c>
       <c r="D5" t="n">
-        <v>1.3648</v>
+        <v>2.5198</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6162</v>
+        <v>0.6083</v>
       </c>
       <c r="F5" t="n">
-        <v>1.342</v>
+        <v>1.2464</v>
       </c>
       <c r="G5" t="n">
-        <v>22.3665</v>
+        <v>16.7308</v>
       </c>
       <c r="H5" t="n">
-        <v>1.1562</v>
+        <v>2.0098</v>
       </c>
       <c r="I5" t="n">
-        <v>1.2526</v>
+        <v>1.2943</v>
       </c>
       <c r="J5" t="n">
-        <v>21.4201</v>
+        <v>15.6599</v>
       </c>
       <c r="K5" t="n">
-        <v>4.0432</v>
+        <v>3.9387</v>
       </c>
       <c r="L5" t="n">
-        <v>12.9699</v>
+        <v>7.7676</v>
       </c>
       <c r="M5" t="n">
-        <v>21.2689</v>
+        <v>21.4679</v>
       </c>
       <c r="N5" t="n">
-        <v>0.3302</v>
+        <v>0.4626</v>
       </c>
       <c r="O5" t="n">
-        <v>1.1622</v>
+        <v>1.0232</v>
       </c>
       <c r="P5" t="n">
-        <v>52.8002</v>
+        <v>48.2211</v>
       </c>
       <c r="Q5" t="n">
-        <v>6.5474</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>7.176</v>
-      </c>
-      <c r="C6" t="n">
-        <v>23.2623</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.9321</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.4452</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1.1383</v>
-      </c>
-      <c r="G6" t="n">
-        <v>21.8263</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1.4314</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1.4286</v>
-      </c>
-      <c r="J6" t="n">
-        <v>21.0189</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.464</v>
-      </c>
-      <c r="L6" t="n">
-        <v>12.4115</v>
-      </c>
-      <c r="M6" t="n">
-        <v>19.9016</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.3622</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.8939</v>
-      </c>
-      <c r="P6" t="n">
-        <v>49.5848</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>4.4962</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>6.8515</v>
-      </c>
-      <c r="C7" t="n">
-        <v>23.7369</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.3146</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.5258</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1.2793</v>
-      </c>
-      <c r="G7" t="n">
-        <v>21.2637</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1.5768</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1.5544</v>
-      </c>
-      <c r="J7" t="n">
-        <v>20.4197</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.4351</v>
-      </c>
-      <c r="L7" t="n">
-        <v>11.9914</v>
-      </c>
-      <c r="M7" t="n">
-        <v>20.8679</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.3182</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0.8735000000000001</v>
-      </c>
-      <c r="P7" t="n">
-        <v>49.5885</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>4.5879</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>7.0711</v>
-      </c>
-      <c r="C8" t="n">
-        <v>23.6024</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1.642</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.4907</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1.2131</v>
-      </c>
-      <c r="G8" t="n">
-        <v>19.016</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1.6173</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1.1352</v>
-      </c>
-      <c r="J8" t="n">
-        <v>18.3029</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.691</v>
-      </c>
-      <c r="L8" t="n">
-        <v>9.6145</v>
-      </c>
-      <c r="M8" t="n">
-        <v>20.8252</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.2224</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0.7883</v>
-      </c>
-      <c r="P8" t="n">
-        <v>47.3108</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>4.6924</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>6.7599</v>
-      </c>
-      <c r="C9" t="n">
-        <v>26.5765</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1.7557</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.3432</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1.2473</v>
-      </c>
-      <c r="G9" t="n">
-        <v>18.8523</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1.7877</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1.0872</v>
-      </c>
-      <c r="J9" t="n">
-        <v>18.0779</v>
-      </c>
-      <c r="K9" t="n">
-        <v>4.582</v>
-      </c>
-      <c r="L9" t="n">
-        <v>9.5303</v>
-      </c>
-      <c r="M9" t="n">
-        <v>23.7336</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0.4312</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0.9177</v>
-      </c>
-      <c r="P9" t="n">
-        <v>52.1758</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>6.747</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>6.0357</v>
-      </c>
-      <c r="C10" t="n">
-        <v>27.6313</v>
-      </c>
-      <c r="D10" t="n">
-        <v>2.6878</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.4139</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1.2286</v>
-      </c>
-      <c r="G10" t="n">
-        <v>17.0322</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1.7208</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1.5414</v>
-      </c>
-      <c r="J10" t="n">
-        <v>16.1422</v>
-      </c>
-      <c r="K10" t="n">
-        <v>4.0213</v>
-      </c>
-      <c r="L10" t="n">
-        <v>8.3857</v>
-      </c>
-      <c r="M10" t="n">
-        <v>23.4021</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0.4761</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0.7475000000000001</v>
-      </c>
-      <c r="P10" t="n">
-        <v>50.6609</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>5.9974</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5.8825</v>
-      </c>
-      <c r="C11" t="n">
-        <v>25.282</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2.5198</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.6083</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1.2464</v>
-      </c>
-      <c r="G11" t="n">
-        <v>16.7308</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2.0098</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1.2943</v>
-      </c>
-      <c r="J11" t="n">
-        <v>15.6599</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3.9387</v>
-      </c>
-      <c r="L11" t="n">
-        <v>7.7676</v>
-      </c>
-      <c r="M11" t="n">
-        <v>21.4679</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0.4626</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.0232</v>
-      </c>
-      <c r="P11" t="n">
-        <v>48.2211</v>
-      </c>
-      <c r="Q11" t="n">
         <v>6.2083</v>
       </c>
     </row>
